--- a/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/BCRbQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="8_{825D2D2F-7902-FC4B-8449-227483A72F6A}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{34F889F1-E7E3-47D2-A6B3-B1513C285C88}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="8_{825D2D2F-7902-FC4B-8449-227483A72F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{D516DD8C-8914-4DEC-8491-260274A54408}"/>
   <bookViews>
-    <workbookView xWindow="-6600" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -430,7 +430,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -708,7 +708,7 @@
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -743,16 +743,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -779,6 +779,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1882,9 +1883,9 @@
       <selection activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2067,9 +2068,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="16384" width="8.86328125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="21">
@@ -2100,7 +2101,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18.95">
+    <row r="7" spans="1:47" ht="18">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>2008.79</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="18.95">
+    <row r="18" spans="1:47" ht="18">
       <c r="A18" s="9" t="s">
         <v>90</v>
       </c>
@@ -4684,7 +4685,7 @@
         <v>232.84</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18.95">
+    <row r="29" spans="1:47" ht="18">
       <c r="A29" s="9" t="s">
         <v>91</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>170.45</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18.95">
+    <row r="40" spans="1:47" ht="18">
       <c r="A40" s="9" t="s">
         <v>92</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>222.3</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.95">
+    <row r="51" spans="1:47" ht="18">
       <c r="A51" s="9" t="s">
         <v>93</v>
       </c>
@@ -8560,7 +8561,7 @@
         <v>514.34</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18.95">
+    <row r="62" spans="1:47" ht="18">
       <c r="A62" s="9" t="s">
         <v>94</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18.95">
+    <row r="73" spans="1:47" ht="18">
       <c r="A73" s="9" t="s">
         <v>95</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>250.45</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18.95">
+    <row r="84" spans="1:47" ht="18">
       <c r="A84" s="9" t="s">
         <v>96</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18.95">
+    <row r="95" spans="1:47" ht="18">
       <c r="A95" s="9" t="s">
         <v>97</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>7.15</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18.95">
+    <row r="106" spans="1:47" ht="18">
       <c r="A106" s="9" t="s">
         <v>98</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>122.46</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18.95">
+    <row r="117" spans="1:47" ht="18">
       <c r="A117" s="9" t="s">
         <v>99</v>
       </c>
@@ -16312,7 +16313,7 @@
         <v>16.96</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18.95">
+    <row r="128" spans="1:47" ht="18">
       <c r="A128" s="9" t="s">
         <v>100</v>
       </c>
@@ -17604,7 +17605,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18.95">
+    <row r="139" spans="1:47" ht="18">
       <c r="A139" s="9" t="s">
         <v>101</v>
       </c>
@@ -18896,7 +18897,7 @@
         <v>129.06</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18.95">
+    <row r="150" spans="1:47" ht="18">
       <c r="A150" s="9" t="s">
         <v>102</v>
       </c>
@@ -20214,16 +20215,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFC6F18-6322-5F42-AA0F-247F5F8DF658}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -21816,2195 +21817,2329 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AH19"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="25.3984375" customWidth="1"/>
+    <col min="4" max="24" width="9.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="32.1">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="28.5">
       <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="4">
         <v>2020</v>
       </c>
-      <c r="C1" s="4">
+      <c r="E1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="F1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="G1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="H1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="I1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="J1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="K1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="L1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="M1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="N1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="O1" s="4">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="P1" s="4">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="Q1" s="4">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="R1" s="4">
         <v>2034</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="S1" s="4">
         <v>2035</v>
       </c>
-      <c r="R1" s="4">
+      <c r="T1" s="4">
         <v>2036</v>
       </c>
-      <c r="S1" s="4">
+      <c r="U1" s="4">
         <v>2037</v>
       </c>
-      <c r="T1" s="4">
+      <c r="V1" s="4">
         <v>2038</v>
       </c>
-      <c r="U1" s="4">
+      <c r="W1" s="4">
         <v>2039</v>
       </c>
-      <c r="V1" s="4">
+      <c r="X1" s="4">
         <v>2040</v>
       </c>
-      <c r="W1" s="4">
+      <c r="Y1" s="4">
         <v>2041</v>
       </c>
-      <c r="X1" s="4">
+      <c r="Z1" s="4">
         <v>2042</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="AA1" s="4">
         <v>2043</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="AB1" s="4">
         <v>2044</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AC1" s="4">
         <v>2045</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AD1" s="4">
         <v>2046</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AE1" s="4">
         <v>2047</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AF1" s="4">
         <v>2048</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AG1" s="4">
         <v>2049</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AH1" s="4">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="20">
+        <f>Calculations!D4</f>
+        <v>588</v>
+      </c>
+      <c r="C2" s="20">
+        <f>Calculations!E4</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <f>Calculations!F4</f>
         <v>407.64000000000124</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <f>Calculations!G4</f>
         <v>1152.9999999999991</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <f>Calculations!H4</f>
         <v>1330</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <f>Calculations!I4</f>
         <v>3194.8</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <f>Calculations!J4</f>
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <f>Calculations!K4</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <f>Calculations!L4</f>
         <v>291</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <f>Calculations!M4</f>
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <f>Calculations!N4</f>
         <v>575</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <f>Calculations!O4</f>
         <v>0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="N2" s="1">
         <f>Calculations!P4</f>
         <v>0</v>
       </c>
-      <c r="M2" s="1">
+      <c r="O2" s="1">
         <f>Calculations!Q4</f>
         <v>0</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <f>Calculations!R4</f>
         <v>0</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <f>Calculations!S4</f>
         <v>0</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <f>Calculations!T4</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <f>Calculations!U4</f>
         <v>156</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="1">
         <f>Calculations!V4</f>
         <v>0</v>
       </c>
-      <c r="S2" s="1">
+      <c r="U2" s="1">
         <f>Calculations!W4</f>
         <v>276</v>
       </c>
-      <c r="T2" s="1">
+      <c r="V2" s="1">
         <f>Calculations!X4</f>
         <v>0</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <f>Calculations!Y4</f>
         <v>155</v>
       </c>
-      <c r="V2" s="1">
+      <c r="X2" s="1">
         <f>Calculations!Z4</f>
         <v>0</v>
       </c>
-      <c r="W2" s="1">
+      <c r="Y2" s="1">
         <f>Calculations!AA4</f>
         <v>641</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Z2" s="1">
         <f>Calculations!AB4</f>
         <v>0</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AA2" s="1">
         <f>Calculations!AC4</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AB2" s="1">
         <f>Calculations!AD4</f>
         <v>0</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AC2" s="1">
         <f>Calculations!AE4</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AD2" s="1">
         <f>Calculations!AF4</f>
         <v>0</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AE2" s="1">
         <f>Calculations!AG4</f>
         <v>0</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AF2" s="1">
         <f>Calculations!AH4</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AG2" s="1">
         <f>Calculations!AI4</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AH2" s="1">
         <f>Calculations!AJ4</f>
         <v>0</v>
       </c>
-      <c r="AH2" s="1"/>
+      <c r="AJ2" s="1"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="20">
+        <f>Calculations!D5</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="20">
+        <f>Calculations!E5</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <f>Calculations!F5</f>
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <f>Calculations!G5</f>
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <f>Calculations!H5</f>
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <f>Calculations!I5</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <f>Calculations!J5</f>
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <f>Calculations!K5</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <f>Calculations!L5</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <f>Calculations!M5</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <f>Calculations!N5</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <f>Calculations!O5</f>
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <f>Calculations!P5</f>
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="O3" s="1">
         <f>Calculations!Q5</f>
         <v>0</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <f>Calculations!R5</f>
         <v>0</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <f>Calculations!S5</f>
         <v>394.95500000000175</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <f>Calculations!T5</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <f>Calculations!U5</f>
         <v>0</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <f>Calculations!V5</f>
         <v>0</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <f>Calculations!W5</f>
         <v>442.46500000000015</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <f>Calculations!X5</f>
         <v>0</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <f>Calculations!Y5</f>
         <v>314.96499999999651</v>
       </c>
-      <c r="V3" s="1">
+      <c r="X3" s="1">
         <f>Calculations!Z5</f>
         <v>0</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Y3" s="1">
         <f>Calculations!AA5</f>
         <v>144.96500000000015</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <f>Calculations!AB5</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <f>Calculations!AC5</f>
         <v>4.4699999999975262</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="1">
         <f>Calculations!AD5</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AC3" s="1">
         <f>Calculations!AE5</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AD3" s="1">
         <f>Calculations!AF5</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AE3" s="1">
         <f>Calculations!AG5</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AF3" s="1">
         <f>Calculations!AH5</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AG3" s="1">
         <f>Calculations!AI5</f>
         <v>4.4699999999975262</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AH3" s="1">
         <f>Calculations!AJ5</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="1"/>
+      <c r="AJ3" s="1"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="20">
+        <f>Calculations!D6</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <f>Calculations!E6</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <f>Calculations!F6</f>
         <v>825</v>
       </c>
-      <c r="C4" s="1">
+      <c r="E4" s="1">
         <f>Calculations!G6</f>
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="1">
         <f>Calculations!H6</f>
         <v>935</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <f>Calculations!I6</f>
         <v>1760</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <f>Calculations!J6</f>
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <f>Calculations!K6</f>
         <v>1902</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <f>Calculations!L6</f>
         <v>1225</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <f>Calculations!M6</f>
         <v>0</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <f>Calculations!N6</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <f>Calculations!O6</f>
         <v>822</v>
       </c>
-      <c r="L4" s="1">
+      <c r="N4" s="1">
         <f>Calculations!P6</f>
         <v>0</v>
       </c>
-      <c r="M4" s="1">
+      <c r="O4" s="1">
         <f>Calculations!Q6</f>
         <v>822</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <f>Calculations!R6</f>
         <v>0</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <f>Calculations!S6</f>
         <v>0</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <f>Calculations!T6</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <f>Calculations!U6</f>
         <v>0</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <f>Calculations!V6</f>
         <v>0</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <f>Calculations!W6</f>
         <v>0</v>
       </c>
-      <c r="T4" s="1">
+      <c r="V4" s="1">
         <f>Calculations!X6</f>
         <v>0</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <f>Calculations!Y6</f>
         <v>0</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <f>Calculations!Z6</f>
         <v>0</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <f>Calculations!AA6</f>
         <v>685</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <f>Calculations!AB6</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <f>Calculations!AC6</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <f>Calculations!AD6</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <f>Calculations!AE6</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AD4" s="1">
         <f>Calculations!AF6</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AE4" s="1">
         <f>Calculations!AG6</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AF4" s="1">
         <f>Calculations!AH6</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AG4" s="1">
         <f>Calculations!AI6</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AH4" s="1">
         <f>Calculations!AJ6</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="1"/>
+      <c r="AJ4" s="1"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="20">
+        <f>Calculations!D7</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <f>Calculations!E7</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <f>Calculations!F7</f>
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <f>Calculations!G7</f>
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F5" s="1">
         <f>Calculations!H7</f>
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <f>Calculations!I7</f>
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
         <f>Calculations!J7</f>
         <v>0</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <f>Calculations!K7</f>
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <f>Calculations!L7</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <f>Calculations!M7</f>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <f>Calculations!N7</f>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <f>Calculations!O7</f>
         <v>0</v>
       </c>
-      <c r="L5" s="1">
+      <c r="N5" s="1">
         <f>Calculations!P7</f>
         <v>0</v>
       </c>
-      <c r="M5" s="1">
+      <c r="O5" s="1">
         <f>Calculations!Q7</f>
         <v>0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <f>Calculations!R7</f>
         <v>0</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <f>Calculations!S7</f>
         <v>0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <f>Calculations!T7</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <f>Calculations!U7</f>
         <v>0</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <f>Calculations!V7</f>
         <v>0</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="1">
         <f>Calculations!W7</f>
         <v>0</v>
       </c>
-      <c r="T5" s="1">
+      <c r="V5" s="1">
         <f>Calculations!X7</f>
         <v>0</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <f>Calculations!Y7</f>
         <v>0</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="1">
         <f>Calculations!Z7</f>
         <v>0</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <f>Calculations!AA7</f>
         <v>0</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <f>Calculations!AB7</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <f>Calculations!AC7</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <f>Calculations!AD7</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <f>Calculations!AE7</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AD5" s="1">
         <f>Calculations!AF7</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AE5" s="1">
         <f>Calculations!AG7</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AF5" s="1">
         <f>Calculations!AH7</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AG5" s="1">
         <f>Calculations!AI7</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AH5" s="1">
         <f>Calculations!AJ7</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="1"/>
+      <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="20">
+        <f>Calculations!D8</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <f>Calculations!E8</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <f>Calculations!F8</f>
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="E6" s="1">
         <f>Calculations!G8</f>
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1">
         <f>Calculations!H8</f>
         <v>0</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="1">
         <f>Calculations!I8</f>
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <f>Calculations!J8</f>
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <f>Calculations!K8</f>
         <v>0</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <f>Calculations!L8</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <f>Calculations!M8</f>
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <f>Calculations!N8</f>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <f>Calculations!O8</f>
         <v>0</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <f>Calculations!P8</f>
         <v>0</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <f>Calculations!Q8</f>
         <v>0</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <f>Calculations!R8</f>
         <v>0</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <f>Calculations!S8</f>
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="R6" s="1">
         <f>Calculations!T8</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <f>Calculations!U8</f>
         <v>0</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <f>Calculations!V8</f>
         <v>0</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="1">
         <f>Calculations!W8</f>
         <v>0</v>
       </c>
-      <c r="T6" s="1">
+      <c r="V6" s="1">
         <f>Calculations!X8</f>
         <v>0</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <f>Calculations!Y8</f>
         <v>0</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <f>Calculations!Z8</f>
         <v>0</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <f>Calculations!AA8</f>
         <v>0</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Z6" s="1">
         <f>Calculations!AB8</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <f>Calculations!AC8</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AB6" s="1">
         <f>Calculations!AD8</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <f>Calculations!AE8</f>
         <v>0</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AD6" s="1">
         <f>Calculations!AF8</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AE6" s="1">
         <f>Calculations!AG8</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <f>Calculations!AH8</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AG6" s="1">
         <f>Calculations!AI8</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <f>Calculations!AJ8</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="1"/>
+      <c r="AJ6" s="1"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="20">
+        <f>Calculations!D9</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <f>Calculations!E9</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <f>Calculations!F9</f>
         <v>0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="E7" s="1">
         <f>Calculations!G9</f>
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="1">
         <f>Calculations!H9</f>
         <v>0</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <f>Calculations!I9</f>
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <f>Calculations!J9</f>
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <f>Calculations!K9</f>
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <f>Calculations!L9</f>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <f>Calculations!M9</f>
         <v>0</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <f>Calculations!N9</f>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <f>Calculations!O9</f>
         <v>0</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <f>Calculations!P9</f>
         <v>0</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <f>Calculations!Q9</f>
         <v>0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <f>Calculations!R9</f>
         <v>0</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <f>Calculations!S9</f>
         <v>0</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <f>Calculations!T9</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <f>Calculations!U9</f>
         <v>0</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="1">
         <f>Calculations!V9</f>
         <v>0</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <f>Calculations!W9</f>
         <v>0</v>
       </c>
-      <c r="T7" s="1">
+      <c r="V7" s="1">
         <f>Calculations!X9</f>
         <v>0</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <f>Calculations!Y9</f>
         <v>0</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <f>Calculations!Z9</f>
         <v>0</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <f>Calculations!AA9</f>
         <v>0</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Z7" s="1">
         <f>Calculations!AB9</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <f>Calculations!AC9</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AB7" s="1">
         <f>Calculations!AD9</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <f>Calculations!AE9</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AD7" s="1">
         <f>Calculations!AF9</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AE7" s="1">
         <f>Calculations!AG9</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AF7" s="1">
         <f>Calculations!AH9</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AG7" s="1">
         <f>Calculations!AI9</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AH7" s="1">
         <f>Calculations!AJ9</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="1"/>
+      <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="20">
+        <f>Calculations!D10</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <f>Calculations!E10</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <f>Calculations!F10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="1">
+      <c r="E8" s="1">
         <f>Calculations!G10</f>
         <v>0</v>
       </c>
-      <c r="D8" s="1">
+      <c r="F8" s="1">
         <f>Calculations!H10</f>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="1">
         <f>Calculations!I10</f>
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
         <f>Calculations!J10</f>
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <f>Calculations!K10</f>
         <v>0</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <f>Calculations!L10</f>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <f>Calculations!M10</f>
         <v>0</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <f>Calculations!N10</f>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <f>Calculations!O10</f>
         <v>0</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <f>Calculations!P10</f>
         <v>0</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <f>Calculations!Q10</f>
         <v>0</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <f>Calculations!R10</f>
         <v>0</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <f>Calculations!S10</f>
         <v>0</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <f>Calculations!T10</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <f>Calculations!U10</f>
         <v>0</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <f>Calculations!V10</f>
         <v>0</v>
       </c>
-      <c r="S8" s="1">
+      <c r="U8" s="1">
         <f>Calculations!W10</f>
         <v>0</v>
       </c>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <f>Calculations!X10</f>
         <v>0</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <f>Calculations!Y10</f>
         <v>0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="X8" s="1">
         <f>Calculations!Z10</f>
         <v>0</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1">
         <f>Calculations!AA10</f>
         <v>0</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Z8" s="1">
         <f>Calculations!AB10</f>
         <v>0</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <f>Calculations!AC10</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AB8" s="1">
         <f>Calculations!AD10</f>
         <v>0</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AC8" s="1">
         <f>Calculations!AE10</f>
         <v>0</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AD8" s="1">
         <f>Calculations!AF10</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AE8" s="1">
         <f>Calculations!AG10</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AF8" s="1">
         <f>Calculations!AH10</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AG8" s="1">
         <f>Calculations!AI10</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AH8" s="1">
         <f>Calculations!AJ10</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="1"/>
+      <c r="AJ8" s="1"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="20">
+        <f>Calculations!D11</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <f>Calculations!E11</f>
+        <v>199.5</v>
+      </c>
+      <c r="D9" s="1">
         <f>Calculations!F11</f>
         <v>0</v>
       </c>
-      <c r="C9" s="1">
+      <c r="E9" s="1">
         <f>Calculations!G11</f>
         <v>0</v>
       </c>
-      <c r="D9" s="1">
+      <c r="F9" s="1">
         <f>Calculations!H11</f>
         <v>0</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <f>Calculations!I11</f>
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <f>Calculations!J11</f>
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <f>Calculations!K11</f>
         <v>0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <f>Calculations!L11</f>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <f>Calculations!M11</f>
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <f>Calculations!N11</f>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <f>Calculations!O11</f>
         <v>0</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <f>Calculations!P11</f>
         <v>0</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <f>Calculations!Q11</f>
         <v>0</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <f>Calculations!R11</f>
         <v>0</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <f>Calculations!S11</f>
         <v>0</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <f>Calculations!T11</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="S9" s="1">
         <f>Calculations!U11</f>
         <v>0</v>
       </c>
-      <c r="R9" s="1">
+      <c r="T9" s="1">
         <f>Calculations!V11</f>
         <v>0</v>
       </c>
-      <c r="S9" s="1">
+      <c r="U9" s="1">
         <f>Calculations!W11</f>
         <v>0</v>
       </c>
-      <c r="T9" s="1">
+      <c r="V9" s="1">
         <f>Calculations!X11</f>
         <v>0</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <f>Calculations!Y11</f>
         <v>0</v>
       </c>
-      <c r="V9" s="1">
+      <c r="X9" s="1">
         <f>Calculations!Z11</f>
         <v>0</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Y9" s="1">
         <f>Calculations!AA11</f>
         <v>0</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Z9" s="1">
         <f>Calculations!AB11</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AA9" s="1">
         <f>Calculations!AC11</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
         <f>Calculations!AD11</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AC9" s="1">
         <f>Calculations!AE11</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AD9" s="1">
         <f>Calculations!AF11</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AE9" s="1">
         <f>Calculations!AG11</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <f>Calculations!AH11</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AG9" s="1">
         <f>Calculations!AI11</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <f>Calculations!AJ11</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="1"/>
+      <c r="AJ9" s="1"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="20">
+        <f>Calculations!D12</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="20">
+        <f>Calculations!E12</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <f>Calculations!F12</f>
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <f>Calculations!G12</f>
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <f>Calculations!H12</f>
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <f>Calculations!I12</f>
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <f>Calculations!J12</f>
         <v>0</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <f>Calculations!K12</f>
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <f>Calculations!L12</f>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <f>Calculations!M12</f>
         <v>0</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <f>Calculations!N12</f>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <f>Calculations!O12</f>
         <v>0</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <f>Calculations!P12</f>
         <v>0</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <f>Calculations!Q12</f>
         <v>0</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <f>Calculations!R12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <f>Calculations!S12</f>
         <v>0</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <f>Calculations!T12</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="S10" s="1">
         <f>Calculations!U12</f>
         <v>0</v>
       </c>
-      <c r="R10" s="1">
+      <c r="T10" s="1">
         <f>Calculations!V12</f>
         <v>0</v>
       </c>
-      <c r="S10" s="1">
+      <c r="U10" s="1">
         <f>Calculations!W12</f>
         <v>0</v>
       </c>
-      <c r="T10" s="1">
+      <c r="V10" s="1">
         <f>Calculations!X12</f>
         <v>0</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <f>Calculations!Y12</f>
         <v>0</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <f>Calculations!Z12</f>
         <v>0</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <f>Calculations!AA12</f>
         <v>0</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Z10" s="1">
         <f>Calculations!AB12</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <f>Calculations!AC12</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AB10" s="1">
         <f>Calculations!AD12</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <f>Calculations!AE12</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AD10" s="1">
         <f>Calculations!AF12</f>
         <v>0</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AE10" s="1">
         <f>Calculations!AG12</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AF10" s="1">
         <f>Calculations!AH12</f>
         <v>0</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AG10" s="1">
         <f>Calculations!AI12</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AH10" s="1">
         <f>Calculations!AJ12</f>
         <v>0</v>
       </c>
-      <c r="AH10" s="1"/>
+      <c r="AJ10" s="1"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="20">
+        <f>Calculations!D13</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="20">
+        <f>Calculations!E13</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <f>Calculations!F13</f>
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="E11" s="1">
         <f>Calculations!G13</f>
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="F11" s="1">
         <f>Calculations!H13</f>
         <v>490</v>
       </c>
-      <c r="E11" s="1">
+      <c r="G11" s="1">
         <f>Calculations!I13</f>
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="H11" s="1">
         <f>Calculations!J13</f>
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <f>Calculations!K13</f>
         <v>3</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <f>Calculations!L13</f>
         <v>31.700000000000273</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <f>Calculations!M13</f>
         <v>0</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <f>Calculations!N13</f>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <f>Calculations!O13</f>
         <v>0</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <f>Calculations!P13</f>
         <v>0</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <f>Calculations!Q13</f>
         <v>0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <f>Calculations!R13</f>
         <v>0</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <f>Calculations!S13</f>
         <v>0</v>
       </c>
-      <c r="P11" s="1">
+      <c r="R11" s="1">
         <f>Calculations!T13</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="S11" s="1">
         <f>Calculations!U13</f>
         <v>67.039999999999964</v>
       </c>
-      <c r="R11" s="1">
+      <c r="T11" s="1">
         <f>Calculations!V13</f>
         <v>0</v>
       </c>
-      <c r="S11" s="1">
+      <c r="U11" s="1">
         <f>Calculations!W13</f>
         <v>0</v>
       </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
         <f>Calculations!X13</f>
         <v>0</v>
       </c>
-      <c r="U11" s="1">
+      <c r="W11" s="1">
         <f>Calculations!Y13</f>
         <v>0</v>
       </c>
-      <c r="V11" s="1">
+      <c r="X11" s="1">
         <f>Calculations!Z13</f>
         <v>0</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Y11" s="1">
         <f>Calculations!AA13</f>
         <v>1050</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Z11" s="1">
         <f>Calculations!AB13</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <f>Calculations!AC13</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AB11" s="1">
         <f>Calculations!AD13</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <f>Calculations!AE13</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AD11" s="1">
         <f>Calculations!AF13</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AE11" s="1">
         <f>Calculations!AG13</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AF11" s="1">
         <f>Calculations!AH13</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AG11" s="1">
         <f>Calculations!AI13</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AH11" s="1">
         <f>Calculations!AJ13</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="1"/>
+      <c r="AJ11" s="1"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:36">
       <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="20">
+        <f>Calculations!D14</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <f>Calculations!E14</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <f>Calculations!F14</f>
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="E12" s="1">
         <f>Calculations!G14</f>
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="F12" s="1">
         <f>Calculations!H14</f>
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <f>Calculations!I14</f>
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="H12" s="1">
         <f>Calculations!J14</f>
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <f>Calculations!K14</f>
         <v>0</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <f>Calculations!L14</f>
         <v>0</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <f>Calculations!M14</f>
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <f>Calculations!N14</f>
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <f>Calculations!O14</f>
         <v>0</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <f>Calculations!P14</f>
         <v>0</v>
       </c>
-      <c r="M12" s="1">
+      <c r="O12" s="1">
         <f>Calculations!Q14</f>
         <v>0</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <f>Calculations!R14</f>
         <v>0</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <f>Calculations!S14</f>
         <v>394.95500000000175</v>
       </c>
-      <c r="P12" s="1">
+      <c r="R12" s="1">
         <f>Calculations!T14</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="S12" s="1">
         <f>Calculations!U14</f>
         <v>0</v>
       </c>
-      <c r="R12" s="1">
+      <c r="T12" s="1">
         <f>Calculations!V14</f>
         <v>0</v>
       </c>
-      <c r="S12" s="1">
+      <c r="U12" s="1">
         <f>Calculations!W14</f>
         <v>442.46500000000015</v>
       </c>
-      <c r="T12" s="1">
+      <c r="V12" s="1">
         <f>Calculations!X14</f>
         <v>0</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <f>Calculations!Y14</f>
         <v>314.96499999999651</v>
       </c>
-      <c r="V12" s="1">
+      <c r="X12" s="1">
         <f>Calculations!Z14</f>
         <v>0</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1">
         <f>Calculations!AA14</f>
         <v>144.96500000000015</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Z12" s="1">
         <f>Calculations!AB14</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <f>Calculations!AC14</f>
         <v>4.4699999999975262</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AB12" s="1">
         <f>Calculations!AD14</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AC12" s="1">
         <f>Calculations!AE14</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AD12" s="1">
         <f>Calculations!AF14</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AE12" s="1">
         <f>Calculations!AG14</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AF12" s="1">
         <f>Calculations!AH14</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AG12" s="1">
         <f>Calculations!AI14</f>
         <v>4.4699999999975262</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AH12" s="1">
         <f>Calculations!AJ14</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="1"/>
+      <c r="AJ12" s="1"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:36">
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="20">
+        <f>Calculations!D15</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <f>Calculations!E15</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <f>Calculations!F15</f>
         <v>0</v>
       </c>
-      <c r="C13" s="1">
+      <c r="E13" s="1">
         <f>Calculations!G15</f>
         <v>0</v>
       </c>
-      <c r="D13" s="1">
+      <c r="F13" s="1">
         <f>Calculations!H15</f>
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <f>Calculations!I15</f>
         <v>0</v>
       </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1">
         <f>Calculations!J15</f>
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <f>Calculations!K15</f>
         <v>0</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <f>Calculations!L15</f>
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <f>Calculations!M15</f>
         <v>0</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <f>Calculations!N15</f>
         <v>0</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <f>Calculations!O15</f>
         <v>0</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <f>Calculations!P15</f>
         <v>0</v>
       </c>
-      <c r="M13" s="1">
+      <c r="O13" s="1">
         <f>Calculations!Q15</f>
         <v>0</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <f>Calculations!R15</f>
         <v>0</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <f>Calculations!S15</f>
         <v>0</v>
       </c>
-      <c r="P13" s="1">
+      <c r="R13" s="1">
         <f>Calculations!T15</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="S13" s="1">
         <f>Calculations!U15</f>
         <v>0</v>
       </c>
-      <c r="R13" s="1">
+      <c r="T13" s="1">
         <f>Calculations!V15</f>
         <v>0</v>
       </c>
-      <c r="S13" s="1">
+      <c r="U13" s="1">
         <f>Calculations!W15</f>
         <v>0</v>
       </c>
-      <c r="T13" s="1">
+      <c r="V13" s="1">
         <f>Calculations!X15</f>
         <v>0</v>
       </c>
-      <c r="U13" s="1">
+      <c r="W13" s="1">
         <f>Calculations!Y15</f>
         <v>0</v>
       </c>
-      <c r="V13" s="1">
+      <c r="X13" s="1">
         <f>Calculations!Z15</f>
         <v>0</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <f>Calculations!AA15</f>
         <v>0</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <f>Calculations!AB15</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <f>Calculations!AC15</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AB13" s="1">
         <f>Calculations!AD15</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <f>Calculations!AE15</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AD13" s="1">
         <f>Calculations!AF15</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AE13" s="1">
         <f>Calculations!AG15</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AF13" s="1">
         <f>Calculations!AH15</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AG13" s="1">
         <f>Calculations!AI15</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AH13" s="1">
         <f>Calculations!AJ15</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="1"/>
+      <c r="AJ13" s="1"/>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:36">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="20">
+        <f>Calculations!D16</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <f>Calculations!E16</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <f>Calculations!F16</f>
         <v>0</v>
       </c>
-      <c r="C14" s="1">
+      <c r="E14" s="1">
         <f>Calculations!G16</f>
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="F14" s="1">
         <f>Calculations!H16</f>
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="G14" s="1">
         <f>Calculations!I16</f>
         <v>0</v>
       </c>
-      <c r="F14" s="1">
+      <c r="H14" s="1">
         <f>Calculations!J16</f>
         <v>0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <f>Calculations!K16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <f>Calculations!L16</f>
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <f>Calculations!M16</f>
         <v>0</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <f>Calculations!N16</f>
         <v>0</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <f>Calculations!O16</f>
         <v>0</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <f>Calculations!P16</f>
         <v>0</v>
       </c>
-      <c r="M14" s="1">
+      <c r="O14" s="1">
         <f>Calculations!Q16</f>
         <v>0</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <f>Calculations!R16</f>
         <v>0</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <f>Calculations!S16</f>
         <v>0</v>
       </c>
-      <c r="P14" s="1">
+      <c r="R14" s="1">
         <f>Calculations!T16</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="S14" s="1">
         <f>Calculations!U16</f>
         <v>0</v>
       </c>
-      <c r="R14" s="1">
+      <c r="T14" s="1">
         <f>Calculations!V16</f>
         <v>0</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="1">
         <f>Calculations!W16</f>
         <v>0</v>
       </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <f>Calculations!X16</f>
         <v>0</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <f>Calculations!Y16</f>
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="X14" s="1">
         <f>Calculations!Z16</f>
         <v>0</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <f>Calculations!AA16</f>
         <v>0</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Z14" s="1">
         <f>Calculations!AB16</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <f>Calculations!AC16</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1">
         <f>Calculations!AD16</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AC14" s="1">
         <f>Calculations!AE16</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AD14" s="1">
         <f>Calculations!AF16</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AE14" s="1">
         <f>Calculations!AG16</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AF14" s="1">
         <f>Calculations!AH16</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AG14" s="1">
         <f>Calculations!AI16</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AH14" s="1">
         <f>Calculations!AJ16</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="1"/>
+      <c r="AJ14" s="1"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="20">
+        <f>Calculations!D17</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="20">
+        <f>Calculations!E17</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <f>Calculations!F17</f>
         <v>0</v>
       </c>
-      <c r="C15" s="1">
+      <c r="E15" s="1">
         <f>Calculations!G17</f>
         <v>0</v>
       </c>
-      <c r="D15" s="1">
+      <c r="F15" s="1">
         <f>Calculations!H17</f>
         <v>0</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <f>Calculations!I17</f>
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="H15" s="1">
         <f>Calculations!J17</f>
         <v>0</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <f>Calculations!K17</f>
         <v>0</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <f>Calculations!L17</f>
         <v>0</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <f>Calculations!M17</f>
         <v>0</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <f>Calculations!N17</f>
         <v>0</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <f>Calculations!O17</f>
         <v>0</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <f>Calculations!P17</f>
         <v>0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="O15" s="1">
         <f>Calculations!Q17</f>
         <v>0</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <f>Calculations!R17</f>
         <v>0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <f>Calculations!S17</f>
         <v>0</v>
       </c>
-      <c r="P15" s="1">
+      <c r="R15" s="1">
         <f>Calculations!T17</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="S15" s="1">
         <f>Calculations!U17</f>
         <v>0</v>
       </c>
-      <c r="R15" s="1">
+      <c r="T15" s="1">
         <f>Calculations!V17</f>
         <v>0</v>
       </c>
-      <c r="S15" s="1">
+      <c r="U15" s="1">
         <f>Calculations!W17</f>
         <v>0</v>
       </c>
-      <c r="T15" s="1">
+      <c r="V15" s="1">
         <f>Calculations!X17</f>
         <v>0</v>
       </c>
-      <c r="U15" s="1">
+      <c r="W15" s="1">
         <f>Calculations!Y17</f>
         <v>0</v>
       </c>
-      <c r="V15" s="1">
+      <c r="X15" s="1">
         <f>Calculations!Z17</f>
         <v>0</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="1">
         <f>Calculations!AA17</f>
         <v>0</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="1">
         <f>Calculations!AB17</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AA15" s="1">
         <f>Calculations!AC17</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AB15" s="1">
         <f>Calculations!AD17</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AC15" s="1">
         <f>Calculations!AE17</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AD15" s="1">
         <f>Calculations!AF17</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AE15" s="1">
         <f>Calculations!AG17</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AF15" s="1">
         <f>Calculations!AH17</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AG15" s="1">
         <f>Calculations!AI17</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AH15" s="1">
         <f>Calculations!AJ17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="20">
+        <f>Calculations!D18</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <f>Calculations!E18</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <f>Calculations!F18</f>
         <v>0</v>
       </c>
-      <c r="C16" s="1">
+      <c r="E16" s="1">
         <f>Calculations!G18</f>
         <v>0</v>
       </c>
-      <c r="D16" s="1">
+      <c r="F16" s="1">
         <f>Calculations!H18</f>
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="G16" s="1">
         <f>Calculations!I18</f>
         <v>0</v>
       </c>
-      <c r="F16" s="1">
+      <c r="H16" s="1">
         <f>Calculations!J18</f>
         <v>0</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <f>Calculations!K18</f>
         <v>0</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <f>Calculations!L18</f>
         <v>0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <f>Calculations!M18</f>
         <v>0</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <f>Calculations!N18</f>
         <v>0</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <f>Calculations!O18</f>
         <v>0</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <f>Calculations!P18</f>
         <v>0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="O16" s="1">
         <f>Calculations!Q18</f>
         <v>0</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <f>Calculations!R18</f>
         <v>0</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <f>Calculations!S18</f>
         <v>0</v>
       </c>
-      <c r="P16" s="1">
+      <c r="R16" s="1">
         <f>Calculations!T18</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="S16" s="1">
         <f>Calculations!U18</f>
         <v>0</v>
       </c>
-      <c r="R16" s="1">
+      <c r="T16" s="1">
         <f>Calculations!V18</f>
         <v>0</v>
       </c>
-      <c r="S16" s="1">
+      <c r="U16" s="1">
         <f>Calculations!W18</f>
         <v>0</v>
       </c>
-      <c r="T16" s="1">
+      <c r="V16" s="1">
         <f>Calculations!X18</f>
         <v>0</v>
       </c>
-      <c r="U16" s="1">
+      <c r="W16" s="1">
         <f>Calculations!Y18</f>
         <v>0</v>
       </c>
-      <c r="V16" s="1">
+      <c r="X16" s="1">
         <f>Calculations!Z18</f>
         <v>0</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Y16" s="1">
         <f>Calculations!AA18</f>
         <v>0</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Z16" s="1">
         <f>Calculations!AB18</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AA16" s="1">
         <f>Calculations!AC18</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AB16" s="1">
         <f>Calculations!AD18</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AC16" s="1">
         <f>Calculations!AE18</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AD16" s="1">
         <f>Calculations!AF18</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AE16" s="1">
         <f>Calculations!AG18</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AF16" s="1">
         <f>Calculations!AH18</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AG16" s="1">
         <f>Calculations!AI18</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AH16" s="1">
         <f>Calculations!AJ18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:34">
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="20">
+        <f>Calculations!D19</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="20">
+        <f>Calculations!E19</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <f>Calculations!F19</f>
         <v>0</v>
       </c>
-      <c r="C17" s="1">
+      <c r="E17" s="1">
         <f>Calculations!G19</f>
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="F17" s="1">
         <f>Calculations!H19</f>
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="G17" s="1">
         <f>Calculations!I19</f>
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="H17" s="1">
         <f>Calculations!J19</f>
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <f>Calculations!K19</f>
         <v>0</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <f>Calculations!L19</f>
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <f>Calculations!M19</f>
         <v>0</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <f>Calculations!N19</f>
         <v>0</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <f>Calculations!O19</f>
         <v>0</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <f>Calculations!P19</f>
         <v>0</v>
       </c>
-      <c r="M17" s="1">
+      <c r="O17" s="1">
         <f>Calculations!Q19</f>
         <v>0</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <f>Calculations!R19</f>
         <v>0</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <f>Calculations!S19</f>
         <v>0</v>
       </c>
-      <c r="P17" s="1">
+      <c r="R17" s="1">
         <f>Calculations!T19</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="S17" s="1">
         <f>Calculations!U19</f>
         <v>0</v>
       </c>
-      <c r="R17" s="1">
+      <c r="T17" s="1">
         <f>Calculations!V19</f>
         <v>0</v>
       </c>
-      <c r="S17" s="1">
+      <c r="U17" s="1">
         <f>Calculations!W19</f>
         <v>0</v>
       </c>
-      <c r="T17" s="1">
+      <c r="V17" s="1">
         <f>Calculations!X19</f>
         <v>0</v>
       </c>
-      <c r="U17" s="1">
+      <c r="W17" s="1">
         <f>Calculations!Y19</f>
         <v>0</v>
       </c>
-      <c r="V17" s="1">
+      <c r="X17" s="1">
         <f>Calculations!Z19</f>
         <v>0</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Y17" s="1">
         <f>Calculations!AA19</f>
         <v>0</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Z17" s="1">
         <f>Calculations!AB19</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AA17" s="1">
         <f>Calculations!AC19</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AB17" s="1">
         <f>Calculations!AD19</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AC17" s="1">
         <f>Calculations!AE19</f>
         <v>0</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AD17" s="1">
         <f>Calculations!AF19</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AE17" s="1">
         <f>Calculations!AG19</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AF17" s="1">
         <f>Calculations!AH19</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AG17" s="1">
         <f>Calculations!AI19</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AH17" s="1">
         <f>Calculations!AJ19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:34">
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24013,34 +24148,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -24064,6 +24173,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -24150,6 +24261,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -24284,14 +24407,61 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7818D18-1300-410E-844A-8AF3A7D55A19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B8907D-C220-48F6-A425-93EEAD7D2292}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC779B3-A4CE-4EC3-93E8-9B05D32B98B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC779B3-A4CE-4EC3-93E8-9B05D32B98B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C2D00C3-B97C-4A23-A19B-AAEE49C60C18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7818D18-1300-410E-844A-8AF3A7D55A19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/BCRbQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="8_{825D2D2F-7902-FC4B-8449-227483A72F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{D516DD8C-8914-4DEC-8491-260274A54408}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{825D2D2F-7902-FC4B-8449-227483A72F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ED90D9B-3A92-457A-93DD-746F2D748917}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Calculations" sheetId="31" r:id="rId3"/>
     <sheet name="BCRbQ" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -752,7 +752,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -779,7 +779,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -823,6 +822,1143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CER CEF Electricity Capacity'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coal &amp; Coke</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CER CEF Electricity Capacity'!$B$8:$AU$8</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CER CEF Electricity Capacity'!$B$14:$AU$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>15647.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15563.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15650.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15471.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15528.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13779.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13253.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12419.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11445.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9641.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9517.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9517.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9517.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8929.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8929.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8521.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7368.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6038.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2553</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1822</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>750</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5509-4CB4-B515-DBDCE704C96A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2108481040"/>
+        <c:axId val="2108493104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2108481040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108493104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2108493104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108481040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>40957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2005788-DA6D-D91E-0622-350616780BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1883,9 +3019,9 @@
       <selection activeCell="A13" sqref="A13:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1961,33 +3097,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.95" customHeight="1">
+    <row r="16" spans="1:3" ht="15.9" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="15.95" customHeight="1">
+    <row r="17" spans="1:3" ht="15.9" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="15.95" customHeight="1">
+    <row r="18" spans="1:3" ht="15.9" customHeight="1">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="15.95" customHeight="1">
+    <row r="19" spans="1:3" ht="15.9" customHeight="1">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="15.95" customHeight="1">
+    <row r="20" spans="1:3" ht="15.9" customHeight="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1996,7 +3132,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="15.95" customHeight="1">
+    <row r="21" spans="1:3" ht="15.9" customHeight="1">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2064,13 +3200,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BA8F1-008C-764B-8C9B-D5BAD26B31AF}">
   <dimension ref="A1:AU159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.86328125" style="7"/>
+    <col min="1" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="21">
@@ -20192,8 +21328,8 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <tableParts count="14">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -20207,6 +21343,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20215,16 +21352,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFC6F18-6322-5F42-AA0F-247F5F8DF658}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -21820,16 +22957,18 @@
   <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="25.3984375" customWidth="1"/>
-    <col min="4" max="24" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="24" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" ht="28.5">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="28.8">
       <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
@@ -21937,11 +23076,11 @@
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="1">
         <f>Calculations!D4</f>
         <v>588</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="1">
         <f>Calculations!E4</f>
         <v>0</v>
       </c>
@@ -22075,11 +23214,11 @@
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="1">
         <f>Calculations!D5</f>
         <v>0</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="1">
         <f>Calculations!E5</f>
         <v>0</v>
       </c>
@@ -22213,11 +23352,11 @@
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="1">
         <f>Calculations!D6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="1">
         <f>Calculations!E6</f>
         <v>0</v>
       </c>
@@ -22351,11 +23490,11 @@
       <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="1">
         <f>Calculations!D7</f>
         <v>0</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="1">
         <f>Calculations!E7</f>
         <v>0</v>
       </c>
@@ -22489,11 +23628,11 @@
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="1">
         <f>Calculations!D8</f>
         <v>0</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="1">
         <f>Calculations!E8</f>
         <v>0</v>
       </c>
@@ -22627,11 +23766,11 @@
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="1">
         <f>Calculations!D9</f>
         <v>0</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="1">
         <f>Calculations!E9</f>
         <v>0</v>
       </c>
@@ -22765,11 +23904,11 @@
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="1">
         <f>Calculations!D10</f>
         <v>0</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="1">
         <f>Calculations!E10</f>
         <v>0</v>
       </c>
@@ -22903,11 +24042,11 @@
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="1">
         <f>Calculations!D11</f>
         <v>0</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="1">
         <f>Calculations!E11</f>
         <v>199.5</v>
       </c>
@@ -23041,11 +24180,11 @@
       <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="1">
         <f>Calculations!D12</f>
         <v>0</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="1">
         <f>Calculations!E12</f>
         <v>0</v>
       </c>
@@ -23179,11 +24318,11 @@
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="1">
         <f>Calculations!D13</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="1">
         <f>Calculations!E13</f>
         <v>0</v>
       </c>
@@ -23317,11 +24456,11 @@
       <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="1">
         <f>Calculations!D14</f>
         <v>0</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="1">
         <f>Calculations!E14</f>
         <v>0</v>
       </c>
@@ -23455,11 +24594,11 @@
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="1">
         <f>Calculations!D15</f>
         <v>0</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="1">
         <f>Calculations!E15</f>
         <v>0</v>
       </c>
@@ -23593,11 +24732,11 @@
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="1">
         <f>Calculations!D16</f>
         <v>0</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="1">
         <f>Calculations!E16</f>
         <v>0</v>
       </c>
@@ -23731,11 +24870,11 @@
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="1">
         <f>Calculations!D17</f>
         <v>0</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="1">
         <f>Calculations!E17</f>
         <v>0</v>
       </c>
@@ -23868,11 +25007,11 @@
       <c r="A16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="1">
         <f>Calculations!D18</f>
         <v>0</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="1">
         <f>Calculations!E18</f>
         <v>0</v>
       </c>
@@ -24005,11 +25144,11 @@
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="1">
         <f>Calculations!D19</f>
         <v>0</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="1">
         <f>Calculations!E19</f>
         <v>0</v>
       </c>
@@ -24148,6 +25287,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -24407,7 +25566,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -24416,39 +25575,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B8907D-C220-48F6-A425-93EEAD7D2292}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC779B3-A4CE-4EC3-93E8-9B05D32B98B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7818D18-1300-410E-844A-8AF3A7D55A19}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -24464,4 +25591,32 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B8907D-C220-48F6-A425-93EEAD7D2292}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC779B3-A4CE-4EC3-93E8-9B05D32B98B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26322"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/BCRbQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="8_{825D2D2F-7902-FC4B-8449-227483A72F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E051D9AC-F5C7-4199-B9DE-CB77B91AD10A}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{825D2D2F-7902-FC4B-8449-227483A72F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D5B4F8B-C8BE-484C-BE86-B221E557192B}"/>
   <bookViews>
-    <workbookView xWindow="-11655" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11655" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -159,6 +160,12 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Coal - Corrected Capacity Outlook</t>
   </si>
   <si>
     <t>Canada</t>
@@ -424,19 +431,13 @@
   <si>
     <t>municipal solid waste</t>
   </si>
-  <si>
-    <t>Coal - Corrected Capacity Outlook</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -721,7 +722,7 @@
   </borders>
   <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -756,11 +757,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0"/>
@@ -3051,12 +3052,12 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD21"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3132,33 +3133,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.9" customHeight="1">
+    <row r="16" spans="1:3" ht="15.95" customHeight="1">
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" ht="15.9" customHeight="1">
+    <row r="17" spans="1:3" ht="15.95" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="15.9" customHeight="1">
+    <row r="18" spans="1:3" ht="15.95" customHeight="1">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="15.9" customHeight="1">
+    <row r="19" spans="1:3" ht="15.95" customHeight="1">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" ht="15.9" customHeight="1">
+    <row r="20" spans="1:3" ht="15.95" customHeight="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3167,7 +3168,7 @@
       </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="15.9" customHeight="1">
+    <row r="21" spans="1:3" ht="15.95" customHeight="1">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3235,13 +3236,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47BA8F1-008C-764B-8C9B-D5BAD26B31AF}">
   <dimension ref="A1:AU159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="21">
@@ -3272,7 +3273,7 @@
         <v>33</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="7">
         <f>2020</f>
@@ -3401,7 +3402,7 @@
     </row>
     <row r="6" spans="1:47">
       <c r="P6" s="20" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="7">
         <v>8275</v>
@@ -3518,155 +3519,155 @@
     </row>
     <row r="7" spans="1:47" ht="18">
       <c r="A7" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:47">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP8" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:47">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" s="7">
         <v>72877.98</v>
@@ -3809,7 +3810,7 @@
     </row>
     <row r="10" spans="1:47">
       <c r="A10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" s="7">
         <v>557.37</v>
@@ -3952,7 +3953,7 @@
     </row>
     <row r="11" spans="1:47">
       <c r="A11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" s="7">
         <v>1735.59</v>
@@ -4095,7 +4096,7 @@
     </row>
     <row r="12" spans="1:47">
       <c r="A12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" s="7">
         <v>16.75</v>
@@ -4238,7 +4239,7 @@
     </row>
     <row r="13" spans="1:47">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B13" s="7">
         <v>12805</v>
@@ -4381,7 +4382,7 @@
     </row>
     <row r="14" spans="1:47">
       <c r="A14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" s="7">
         <v>15647.64</v>
@@ -4524,7 +4525,7 @@
     </row>
     <row r="15" spans="1:47">
       <c r="A15" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" s="7">
         <v>13561.11</v>
@@ -4667,7 +4668,7 @@
     </row>
     <row r="16" spans="1:47">
       <c r="A16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="7">
         <v>4770.08</v>
@@ -4810,155 +4811,155 @@
     </row>
     <row r="18" spans="1:47" ht="18">
       <c r="A18" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:47">
       <c r="A19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF19" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK19" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:47">
       <c r="A20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="7">
         <v>6790.68</v>
@@ -5101,7 +5102,7 @@
     </row>
     <row r="21" spans="1:47">
       <c r="A21" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -5244,7 +5245,7 @@
     </row>
     <row r="22" spans="1:47">
       <c r="A22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B22" s="7">
         <v>15</v>
@@ -5387,7 +5388,7 @@
     </row>
     <row r="23" spans="1:47">
       <c r="A23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -5530,7 +5531,7 @@
     </row>
     <row r="24" spans="1:47">
       <c r="A24" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24" s="7">
         <v>0</v>
@@ -5673,7 +5674,7 @@
     </row>
     <row r="25" spans="1:47">
       <c r="A25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" s="7">
         <v>0</v>
@@ -5816,7 +5817,7 @@
     </row>
     <row r="26" spans="1:47">
       <c r="A26" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B26" s="7">
         <v>131.5</v>
@@ -5959,7 +5960,7 @@
     </row>
     <row r="27" spans="1:47">
       <c r="A27" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27" s="7">
         <v>783.7</v>
@@ -6102,155 +6103,155 @@
     </row>
     <row r="29" spans="1:47" ht="18">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:47">
       <c r="A30" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U30" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X30" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y30" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z30" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA30" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB30" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC30" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF30" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG30" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH30" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI30" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN30" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO30" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP30" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ30" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR30" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS30" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT30" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU30" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:47">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B31" s="7">
         <v>0</v>
@@ -6393,7 +6394,7 @@
     </row>
     <row r="32" spans="1:47">
       <c r="A32" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" s="7">
         <v>13</v>
@@ -6536,7 +6537,7 @@
     </row>
     <row r="33" spans="1:47">
       <c r="A33" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B33" s="7">
         <v>2.1</v>
@@ -6679,7 +6680,7 @@
     </row>
     <row r="34" spans="1:47">
       <c r="A34" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B34" s="7">
         <v>0</v>
@@ -6822,7 +6823,7 @@
     </row>
     <row r="35" spans="1:47">
       <c r="A35" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>
@@ -6965,7 +6966,7 @@
     </row>
     <row r="36" spans="1:47">
       <c r="A36" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B36" s="7">
         <v>0</v>
@@ -7108,7 +7109,7 @@
     </row>
     <row r="37" spans="1:47">
       <c r="A37" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
@@ -7251,7 +7252,7 @@
     </row>
     <row r="38" spans="1:47">
       <c r="A38" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B38" s="7">
         <v>160.5</v>
@@ -7394,155 +7395,155 @@
     </row>
     <row r="40" spans="1:47" ht="18">
       <c r="A40" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:47">
       <c r="A41" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R41" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T41" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W41" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X41" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y41" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z41" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA41" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB41" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC41" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD41" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE41" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF41" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG41" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH41" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI41" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ41" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK41" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL41" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM41" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN41" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO41" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP41" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ41" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR41" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS41" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT41" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU41" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:47">
       <c r="A42" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="7">
         <v>389.35</v>
@@ -7685,7 +7686,7 @@
     </row>
     <row r="43" spans="1:47">
       <c r="A43" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="7">
         <v>34.700000000000003</v>
@@ -7828,7 +7829,7 @@
     </row>
     <row r="44" spans="1:47">
       <c r="A44" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="7">
         <v>68.62</v>
@@ -7971,7 +7972,7 @@
     </row>
     <row r="45" spans="1:47">
       <c r="A45" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="7">
         <v>0</v>
@@ -8114,7 +8115,7 @@
     </row>
     <row r="46" spans="1:47">
       <c r="A46" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="7">
         <v>0</v>
@@ -8257,7 +8258,7 @@
     </row>
     <row r="47" spans="1:47">
       <c r="A47" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B47" s="7">
         <v>1288</v>
@@ -8400,7 +8401,7 @@
     </row>
     <row r="48" spans="1:47">
       <c r="A48" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="7">
         <v>381</v>
@@ -8543,7 +8544,7 @@
     </row>
     <row r="49" spans="1:47">
       <c r="A49" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="7">
         <v>222.3</v>
@@ -8686,155 +8687,155 @@
     </row>
     <row r="51" spans="1:47" ht="18">
       <c r="A51" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:47">
       <c r="A52" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R52" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U52" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W52" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X52" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y52" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA52" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB52" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC52" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD52" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE52" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF52" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG52" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH52" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI52" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ52" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK52" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL52" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM52" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN52" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO52" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP52" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ52" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR52" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS52" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT52" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU52" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:47">
       <c r="A53" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="7">
         <v>953.13</v>
@@ -8977,7 +8978,7 @@
     </row>
     <row r="54" spans="1:47">
       <c r="A54" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B54" s="7">
         <v>0</v>
@@ -9120,7 +9121,7 @@
     </row>
     <row r="55" spans="1:47">
       <c r="A55" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="7">
         <v>127.37</v>
@@ -9263,7 +9264,7 @@
     </row>
     <row r="56" spans="1:47">
       <c r="A56" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B56" s="7">
         <v>0</v>
@@ -9406,7 +9407,7 @@
     </row>
     <row r="57" spans="1:47">
       <c r="A57" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="7">
         <v>680</v>
@@ -9549,7 +9550,7 @@
     </row>
     <row r="58" spans="1:47">
       <c r="A58" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B58" s="7">
         <v>541</v>
@@ -9692,7 +9693,7 @@
     </row>
     <row r="59" spans="1:47">
       <c r="A59" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="7">
         <v>340</v>
@@ -9835,7 +9836,7 @@
     </row>
     <row r="60" spans="1:47">
       <c r="A60" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="7">
         <v>1593.04</v>
@@ -9978,155 +9979,155 @@
     </row>
     <row r="62" spans="1:47" ht="18">
       <c r="A62" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:47">
       <c r="A63" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S63" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U63" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V63" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W63" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X63" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y63" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z63" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA63" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB63" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD63" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE63" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF63" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG63" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH63" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI63" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ63" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK63" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL63" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM63" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN63" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO63" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP63" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ63" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR63" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS63" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT63" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU63" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:47">
       <c r="A64" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="7">
         <v>36473</v>
@@ -10269,7 +10270,7 @@
     </row>
     <row r="65" spans="1:47">
       <c r="A65" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="7">
         <v>207</v>
@@ -10412,7 +10413,7 @@
     </row>
     <row r="66" spans="1:47">
       <c r="A66" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="7">
         <v>278</v>
@@ -10555,7 +10556,7 @@
     </row>
     <row r="67" spans="1:47">
       <c r="A67" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="7">
         <v>0</v>
@@ -10698,7 +10699,7 @@
     </row>
     <row r="68" spans="1:47">
       <c r="A68" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="7">
         <v>675</v>
@@ -10841,7 +10842,7 @@
     </row>
     <row r="69" spans="1:47">
       <c r="A69" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" s="7">
         <v>0</v>
@@ -10984,7 +10985,7 @@
     </row>
     <row r="70" spans="1:47">
       <c r="A70" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="7">
         <v>31.05</v>
@@ -11127,7 +11128,7 @@
     </row>
     <row r="71" spans="1:47">
       <c r="A71" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="7">
         <v>1594.63</v>
@@ -11270,155 +11271,155 @@
     </row>
     <row r="73" spans="1:47" ht="18">
       <c r="A73" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:47">
       <c r="A74" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R74" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S74" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T74" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U74" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V74" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W74" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X74" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y74" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z74" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA74" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB74" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC74" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD74" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE74" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF74" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG74" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH74" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI74" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ74" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK74" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL74" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM74" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN74" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO74" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP74" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ74" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR74" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS74" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT74" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU74" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:47">
       <c r="A75" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B75" s="7">
         <v>8505</v>
@@ -11561,7 +11562,7 @@
     </row>
     <row r="76" spans="1:47">
       <c r="A76" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B76" s="7">
         <v>15</v>
@@ -11704,7 +11705,7 @@
     </row>
     <row r="77" spans="1:47">
       <c r="A77" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="7">
         <v>209</v>
@@ -11847,7 +11848,7 @@
     </row>
     <row r="78" spans="1:47">
       <c r="A78" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B78" s="7">
         <v>16.75</v>
@@ -11990,7 +11991,7 @@
     </row>
     <row r="79" spans="1:47">
       <c r="A79" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="7">
         <v>11450</v>
@@ -12133,7 +12134,7 @@
     </row>
     <row r="80" spans="1:47">
       <c r="A80" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B80" s="7">
         <v>6226</v>
@@ -12276,7 +12277,7 @@
     </row>
     <row r="81" spans="1:47">
       <c r="A81" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="7">
         <v>4916.91</v>
@@ -12419,7 +12420,7 @@
     </row>
     <row r="82" spans="1:47">
       <c r="A82" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B82" s="7">
         <v>115.81</v>
@@ -12562,155 +12563,155 @@
     </row>
     <row r="84" spans="1:47" ht="18">
       <c r="A84" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:47">
       <c r="A85" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S85" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U85" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V85" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W85" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X85" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y85" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z85" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA85" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB85" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC85" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD85" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE85" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF85" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG85" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH85" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI85" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ85" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK85" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL85" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM85" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN85" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO85" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP85" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ85" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR85" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS85" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT85" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU85" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:47">
       <c r="A86" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="7">
         <v>5053.63</v>
@@ -12853,7 +12854,7 @@
     </row>
     <row r="87" spans="1:47">
       <c r="A87" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B87" s="7">
         <v>20</v>
@@ -12996,7 +12997,7 @@
     </row>
     <row r="88" spans="1:47">
       <c r="A88" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" s="7">
         <v>22</v>
@@ -13139,7 +13140,7 @@
     </row>
     <row r="89" spans="1:47">
       <c r="A89" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B89" s="7">
         <v>0</v>
@@ -13282,7 +13283,7 @@
     </row>
     <row r="90" spans="1:47">
       <c r="A90" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B90" s="7">
         <v>0</v>
@@ -13425,7 +13426,7 @@
     </row>
     <row r="91" spans="1:47">
       <c r="A91" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" s="7">
         <v>97.64</v>
@@ -13568,7 +13569,7 @@
     </row>
     <row r="92" spans="1:47">
       <c r="A92" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B92" s="7">
         <v>400.38</v>
@@ -13711,7 +13712,7 @@
     </row>
     <row r="93" spans="1:47">
       <c r="A93" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B93" s="7">
         <v>0</v>
@@ -13854,155 +13855,155 @@
     </row>
     <row r="95" spans="1:47" ht="18">
       <c r="A95" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:47">
       <c r="A96" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U96" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V96" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W96" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X96" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y96" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z96" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA96" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB96" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC96" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD96" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE96" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF96" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG96" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH96" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI96" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ96" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK96" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL96" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM96" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN96" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO96" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP96" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ96" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR96" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS96" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT96" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU96" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:47">
       <c r="A97" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B97" s="7">
         <v>869</v>
@@ -14145,7 +14146,7 @@
     </row>
     <row r="98" spans="1:47">
       <c r="A98" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B98" s="7">
         <v>251</v>
@@ -14288,7 +14289,7 @@
     </row>
     <row r="99" spans="1:47">
       <c r="A99" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B99" s="7">
         <v>271</v>
@@ -14431,7 +14432,7 @@
     </row>
     <row r="100" spans="1:47">
       <c r="A100" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B100" s="7">
         <v>0</v>
@@ -14574,7 +14575,7 @@
     </row>
     <row r="101" spans="1:47">
       <c r="A101" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B101" s="7">
         <v>0</v>
@@ -14717,7 +14718,7 @@
     </row>
     <row r="102" spans="1:47">
       <c r="A102" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B102" s="7">
         <v>5696</v>
@@ -14860,7 +14861,7 @@
     </row>
     <row r="103" spans="1:47">
       <c r="A103" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B103" s="7">
         <v>4904</v>
@@ -15003,7 +15004,7 @@
     </row>
     <row r="104" spans="1:47">
       <c r="A104" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B104" s="7">
         <v>7.15</v>
@@ -15146,155 +15147,155 @@
     </row>
     <row r="106" spans="1:47" ht="18">
       <c r="A106" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:47">
       <c r="A107" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S107" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T107" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U107" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V107" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W107" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X107" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y107" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z107" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA107" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB107" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC107" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD107" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE107" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF107" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG107" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH107" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI107" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ107" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK107" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL107" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM107" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN107" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO107" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP107" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ107" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR107" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS107" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT107" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU107" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:47">
       <c r="A108" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B108" s="7">
         <v>12847</v>
@@ -15437,7 +15438,7 @@
     </row>
     <row r="109" spans="1:47">
       <c r="A109" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B109" s="7">
         <v>0</v>
@@ -15580,7 +15581,7 @@
     </row>
     <row r="110" spans="1:47">
       <c r="A110" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B110" s="7">
         <v>742.5</v>
@@ -15723,7 +15724,7 @@
     </row>
     <row r="111" spans="1:47">
       <c r="A111" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B111" s="7">
         <v>0</v>
@@ -15866,7 +15867,7 @@
     </row>
     <row r="112" spans="1:47">
       <c r="A112" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B112" s="7">
         <v>0</v>
@@ -16009,7 +16010,7 @@
     </row>
     <row r="113" spans="1:47">
       <c r="A113" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B113" s="7">
         <v>0</v>
@@ -16152,7 +16153,7 @@
     </row>
     <row r="114" spans="1:47">
       <c r="A114" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B114" s="7">
         <v>1375.52</v>
@@ -16295,7 +16296,7 @@
     </row>
     <row r="115" spans="1:47">
       <c r="A115" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B115" s="7">
         <v>82.46</v>
@@ -16438,155 +16439,155 @@
     </row>
     <row r="117" spans="1:47" ht="18">
       <c r="A117" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="118" spans="1:47">
       <c r="A118" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J118" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P118" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q118" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T118" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U118" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V118" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W118" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X118" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y118" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z118" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA118" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB118" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC118" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD118" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE118" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF118" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG118" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH118" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI118" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ118" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK118" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL118" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM118" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN118" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO118" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP118" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ118" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR118" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS118" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT118" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU118" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:47">
       <c r="A119" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B119" s="7">
         <v>863.81</v>
@@ -16729,7 +16730,7 @@
     </row>
     <row r="120" spans="1:47">
       <c r="A120" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B120" s="7">
         <v>15.86</v>
@@ -16872,7 +16873,7 @@
     </row>
     <row r="121" spans="1:47">
       <c r="A121" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B121" s="7">
         <v>0</v>
@@ -17015,7 +17016,7 @@
     </row>
     <row r="122" spans="1:47">
       <c r="A122" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B122" s="7">
         <v>0</v>
@@ -17158,7 +17159,7 @@
     </row>
     <row r="123" spans="1:47">
       <c r="A123" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B123" s="7">
         <v>0</v>
@@ -17301,7 +17302,7 @@
     </row>
     <row r="124" spans="1:47">
       <c r="A124" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B124" s="7">
         <v>1799</v>
@@ -17444,7 +17445,7 @@
     </row>
     <row r="125" spans="1:47">
       <c r="A125" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B125" s="7">
         <v>1053.45</v>
@@ -17587,7 +17588,7 @@
     </row>
     <row r="126" spans="1:47">
       <c r="A126" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B126" s="7">
         <v>1.17</v>
@@ -17730,155 +17731,155 @@
     </row>
     <row r="128" spans="1:47" ht="18">
       <c r="A128" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:47">
       <c r="A129" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P129" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q129" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R129" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S129" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T129" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U129" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V129" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W129" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X129" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y129" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z129" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA129" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB129" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC129" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD129" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE129" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF129" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG129" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH129" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI129" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ129" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK129" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL129" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM129" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN129" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO129" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP129" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ129" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR129" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS129" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT129" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU129" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:47">
       <c r="A130" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B130" s="7">
         <v>77.900000000000006</v>
@@ -18021,7 +18022,7 @@
     </row>
     <row r="131" spans="1:47">
       <c r="A131" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B131" s="7">
         <v>0.81</v>
@@ -18164,7 +18165,7 @@
     </row>
     <row r="132" spans="1:47">
       <c r="A132" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B132" s="7">
         <v>0</v>
@@ -18307,7 +18308,7 @@
     </row>
     <row r="133" spans="1:47">
       <c r="A133" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B133" s="7">
         <v>0</v>
@@ -18450,7 +18451,7 @@
     </row>
     <row r="134" spans="1:47">
       <c r="A134" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B134" s="7">
         <v>0</v>
@@ -18593,7 +18594,7 @@
     </row>
     <row r="135" spans="1:47">
       <c r="A135" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B135" s="7">
         <v>0</v>
@@ -18736,7 +18737,7 @@
     </row>
     <row r="136" spans="1:47">
       <c r="A136" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B136" s="7">
         <v>0</v>
@@ -18879,7 +18880,7 @@
     </row>
     <row r="137" spans="1:47">
       <c r="A137" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B137" s="7">
         <v>33.340000000000003</v>
@@ -19022,155 +19023,155 @@
     </row>
     <row r="139" spans="1:47" ht="18">
       <c r="A139" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="1:47">
       <c r="A140" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I140" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J140" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K140" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N140" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P140" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q140" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R140" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S140" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T140" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U140" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V140" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W140" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X140" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y140" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z140" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA140" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB140" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC140" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD140" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE140" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF140" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG140" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH140" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI140" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ140" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK140" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL140" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM140" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN140" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO140" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP140" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ140" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR140" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS140" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT140" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU140" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="141" spans="1:47">
       <c r="A141" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B141" s="7">
         <v>55.48</v>
@@ -19313,7 +19314,7 @@
     </row>
     <row r="142" spans="1:47">
       <c r="A142" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B142" s="7">
         <v>0</v>
@@ -19456,7 +19457,7 @@
     </row>
     <row r="143" spans="1:47">
       <c r="A143" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B143" s="7">
         <v>0</v>
@@ -19599,7 +19600,7 @@
     </row>
     <row r="144" spans="1:47">
       <c r="A144" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B144" s="7">
         <v>0</v>
@@ -19742,7 +19743,7 @@
     </row>
     <row r="145" spans="1:47">
       <c r="A145" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B145" s="7">
         <v>0</v>
@@ -19885,7 +19886,7 @@
     </row>
     <row r="146" spans="1:47">
       <c r="A146" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B146" s="7">
         <v>0</v>
@@ -20028,7 +20029,7 @@
     </row>
     <row r="147" spans="1:47">
       <c r="A147" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B147" s="7">
         <v>27.3</v>
@@ -20171,7 +20172,7 @@
     </row>
     <row r="148" spans="1:47">
       <c r="A148" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B148" s="7">
         <v>121.7</v>
@@ -20314,155 +20315,155 @@
     </row>
     <row r="150" spans="1:47" ht="18">
       <c r="A150" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:47">
       <c r="A151" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N151" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P151" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q151" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R151" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S151" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T151" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U151" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V151" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W151" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X151" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y151" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z151" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA151" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB151" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AC151" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD151" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AE151" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AF151" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG151" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AH151" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AI151" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ151" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AK151" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AL151" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AM151" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN151" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AO151" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AP151" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AQ151" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AR151" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AS151" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AT151" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU151" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:47">
       <c r="A152" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B152" s="7">
         <v>0</v>
@@ -20605,7 +20606,7 @@
     </row>
     <row r="153" spans="1:47">
       <c r="A153" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B153" s="7">
         <v>0</v>
@@ -20748,7 +20749,7 @@
     </row>
     <row r="154" spans="1:47">
       <c r="A154" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B154" s="7">
         <v>0</v>
@@ -20891,7 +20892,7 @@
     </row>
     <row r="155" spans="1:47">
       <c r="A155" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B155" s="7">
         <v>0</v>
@@ -21034,7 +21035,7 @@
     </row>
     <row r="156" spans="1:47">
       <c r="A156" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B156" s="7">
         <v>0</v>
@@ -21177,7 +21178,7 @@
     </row>
     <row r="157" spans="1:47">
       <c r="A157" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B157" s="7">
         <v>0</v>
@@ -21320,7 +21321,7 @@
     </row>
     <row r="158" spans="1:47">
       <c r="A158" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B158" s="7">
         <v>0</v>
@@ -21463,7 +21464,7 @@
     </row>
     <row r="159" spans="1:47">
       <c r="A159" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B159" s="7">
         <v>54.28</v>
@@ -21633,19 +21634,21 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -21792,7 +21795,7 @@
     </row>
     <row r="4" spans="1:36" s="1" customFormat="1">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L14-'CER CEF Electricity Capacity'!M14)</f>
@@ -21937,7 +21940,7 @@
     </row>
     <row r="5" spans="1:36" s="1" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L15-'CER CEF Electricity Capacity'!M15)*About!$B21</f>
@@ -22082,7 +22085,7 @@
     </row>
     <row r="6" spans="1:36" s="1" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L13-'CER CEF Electricity Capacity'!M13)</f>
@@ -22227,7 +22230,7 @@
     </row>
     <row r="7" spans="1:36" s="1" customFormat="1">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L9-'CER CEF Electricity Capacity'!M9)</f>
@@ -22372,7 +22375,7 @@
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L10-'CER CEF Electricity Capacity'!M10)</f>
@@ -22517,7 +22520,7 @@
     </row>
     <row r="9" spans="1:36" s="1" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L12-'CER CEF Electricity Capacity'!M12)</f>
@@ -22662,7 +22665,7 @@
     </row>
     <row r="10" spans="1:36" s="1" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
@@ -22688,7 +22691,7 @@
     </row>
     <row r="11" spans="1:36" s="1" customFormat="1">
       <c r="A11" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L11-'CER CEF Electricity Capacity'!M11)</f>
@@ -22833,7 +22836,7 @@
     </row>
     <row r="12" spans="1:36" s="1" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -22859,7 +22862,7 @@
     </row>
     <row r="13" spans="1:36" s="1" customFormat="1">
       <c r="A13" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L16-'CER CEF Electricity Capacity'!M16)</f>
@@ -23004,7 +23007,7 @@
     </row>
     <row r="14" spans="1:36" s="1" customFormat="1">
       <c r="A14" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1">
         <f>MAX(0,'CER CEF Electricity Capacity'!L15-'CER CEF Electricity Capacity'!M15)*About!$B20</f>
@@ -23149,7 +23152,7 @@
     </row>
     <row r="15" spans="1:36" s="1" customFormat="1">
       <c r="A15" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
@@ -23175,7 +23178,7 @@
     </row>
     <row r="16" spans="1:36" s="1" customFormat="1">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
@@ -23270,20 +23273,20 @@
   <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="24" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="24" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="2" customFormat="1" ht="28.8">
+    <row r="1" spans="1:36" s="2" customFormat="1" ht="28.9">
       <c r="A1" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="5">
         <v>2018</v>
@@ -23387,7 +23390,7 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1">
         <f>Calculations!D4</f>
@@ -23525,7 +23528,7 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1">
         <f>Calculations!D5</f>
@@ -23663,7 +23666,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1">
         <f>Calculations!D6</f>
@@ -23801,7 +23804,7 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1">
         <f>Calculations!D7</f>
@@ -23939,7 +23942,7 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1">
         <f>Calculations!D8</f>
@@ -24077,7 +24080,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1">
         <f>Calculations!D9</f>
@@ -24215,7 +24218,7 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1">
         <f>Calculations!D10</f>
@@ -24353,7 +24356,7 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1">
         <f>Calculations!D11</f>
@@ -24491,7 +24494,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1">
         <f>Calculations!D12</f>
@@ -24629,7 +24632,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1">
         <f>Calculations!D13</f>
@@ -24767,7 +24770,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1">
         <f>Calculations!D14</f>
@@ -24905,7 +24908,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1">
         <f>Calculations!D15</f>
@@ -25043,7 +25046,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1">
         <f>Calculations!D16</f>
@@ -25181,7 +25184,7 @@
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1">
         <f>Calculations!D17</f>
@@ -25318,7 +25321,7 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1">
         <f>Calculations!D18</f>
@@ -25455,7 +25458,7 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B17" s="1">
         <f>Calculations!D19</f>
@@ -25600,8 +25603,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -25627,6 +25630,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -25727,6 +25731,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -25860,15 +25869,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -25888,48 +25888,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4B8907D-C220-48F6-A425-93EEAD7D2292}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A585AF8F-A6EA-45FD-9D2A-CCFBC45B7159}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC779B3-A4CE-4EC3-93E8-9B05D32B98B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7818D18-1300-410E-844A-8AF3A7D55A19}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7818D18-1300-410E-844A-8AF3A7D55A19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEC779B3-A4CE-4EC3-93E8-9B05D32B98B0}"/>
 </file>